--- a/documentation/306_Journal_travail_ArcardiaBox_GREMAUD_VALENTIN.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_GREMAUD_VALENTIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/valentin_gremaud_studentfr_ch/Documents/Documents/INFO/3ème année/306/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{542619C4-930E-734D-95CD-9EBCC3E78C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5E30509-1304-8842-902C-057A5AA26084}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{AD3704F4-E514-C94B-BB1C-897372BB263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15E5DC2A-9D9B-9B43-84AD-956FBBAD9100}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Gremaud Valentin</t>
   </si>
@@ -119,6 +119,48 @@
   </si>
   <si>
     <t>J'ai bien bossé aujourd'hui, je crois avoir bien rempli mon travail de product owner en ayant défini l'objectif de notre sprint et m'étant assuré que chacun ait du travail. J'ai peu codé ou travaillé concrètement sur le projet hors mis que j'ai aidé diogo dans la config.</t>
+  </si>
+  <si>
+    <t>Documentation de la conception</t>
+  </si>
+  <si>
+    <t>Configuration de la Raspberry</t>
+  </si>
+  <si>
+    <t>Installation du serveur web sur la raspberry</t>
+  </si>
+  <si>
+    <t>Déploiement sur la raspberry du PACMAN</t>
+  </si>
+  <si>
+    <t>Test du jeu déployé (Bug de fluidité)</t>
+  </si>
+  <si>
+    <t>Changement d'OS sur la raspberry pour optimiser la fluidité</t>
+  </si>
+  <si>
+    <t>Lecture du cahier des charges</t>
+  </si>
+  <si>
+    <t>Création d'un business case</t>
+  </si>
+  <si>
+    <t>Rencontre avec le client (kick-off)</t>
+  </si>
+  <si>
+    <t>Préparation de la rencontre avec client</t>
+  </si>
+  <si>
+    <t>Documentation initiale</t>
+  </si>
+  <si>
+    <t>Aide à Axelle pour le planning</t>
+  </si>
+  <si>
+    <t>Users stories et product backlog</t>
+  </si>
+  <si>
+    <t>C'était la semaine de lancement du projet donc je n'ai pas forcément fait énormément de travail mais j'ai surtout réfléchi comment mener à bien le projet de la meilleure manière.</t>
   </si>
 </sst>
 </file>
@@ -576,10 +618,22 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -642,18 +696,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1162,10 +1204,10 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E23" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E35" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33:D33"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1182,20 +1224,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -1208,13 +1250,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1224,9 +1266,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1236,18 +1278,26 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="47">
+      <c r="A6" s="50">
         <v>45992</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="18"/>
-      <c r="B7" s="21"/>
+      <c r="B7" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="22"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="18"/>
@@ -1263,7 +1313,7 @@
       </c>
       <c r="D9" s="8">
         <f>SUM(D6:D8)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1276,15 +1326,23 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
@@ -1294,28 +1352,40 @@
       </c>
       <c r="D13" s="8">
         <f>SUM(D10:D12)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
         <v>45993</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="C14" s="20"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
@@ -1325,7 +1395,7 @@
       </c>
       <c r="D17" s="8">
         <f>SUM(D14:D16)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -1338,11 +1408,13 @@
       </c>
       <c r="D18" s="11">
         <f>SUM(D9,D13,D17)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
+      <c r="A19" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="30"/>
@@ -1351,22 +1423,22 @@
       <c r="A20" s="18">
         <v>45999</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -1384,22 +1456,22 @@
       <c r="A24" s="17">
         <v>45999</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -1427,10 +1499,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="7">
         <v>1</v>
       </c>
@@ -1470,7 +1542,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="29"/>
@@ -1478,24 +1550,36 @@
       <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="31">
+      <c r="A34" s="32">
         <v>46006</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C34" s="20"/>
-      <c r="D34" s="7"/>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="18"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="21" t="s">
+        <v>20</v>
+      </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="7"/>
+      <c r="D35" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="18"/>
-      <c r="B36" s="21"/>
+      <c r="B36" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="18"/>
@@ -1505,28 +1589,40 @@
       </c>
       <c r="D37" s="8">
         <f>SUM(D34:D36)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17">
         <v>46006</v>
       </c>
-      <c r="B38" s="19"/>
+      <c r="B38" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="C38" s="20"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="7"/>
+      <c r="B39" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="18"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="7"/>
+      <c r="B40" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="18"/>
@@ -1536,7 +1632,7 @@
       </c>
       <c r="D41" s="8">
         <f>SUM(D38:D40)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1580,7 +1676,7 @@
       </c>
       <c r="D46" s="11">
         <f>SUM(D37,D41,D45)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
@@ -1813,11 +1909,11 @@
       </c>
       <c r="D76" s="9">
         <f>D18+D32+D46+D60+D74</f>
-        <v>3.5</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="66">
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
@@ -1842,7 +1938,6 @@
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B20:C22"/>
     <mergeCell ref="A24:A27"/>
@@ -1856,8 +1951,6 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A48:A51"/>
@@ -1951,81 +2044,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AppVersion xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Invited_Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Owner xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Teams_Channel_Section_Location xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <TeamsChannelId xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Invited_Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <FolderType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <CultureName xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Student_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Self_Registration_Enabled xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Templates xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <LMS_Mappings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <NotebookType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Distribution_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Math_Settings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <TaxCatchAll xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" xsi:nil="true"/>
-    <SharedWithUsers xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Groupe xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Langue xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">FD = français voie bili</Langue>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100280ED870E36F6F4C976CEAC6988F82A5" ma:contentTypeVersion="37" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3169f06de23f2334ced166a676265d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xmlns:ns3="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab9665bb0af9cfdaba242b84d69e760" ns2:_="" ns3:_="">
     <xsd:import namespace="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
@@ -2462,32 +2480,82 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5"/>
-    <ds:schemaRef ds:uri="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AppVersion xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Invited_Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Owner xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Teams_Channel_Section_Location xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <TeamsChannelId xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Invited_Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <FolderType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <CultureName xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Student_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Self_Registration_Enabled xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Templates xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <LMS_Mappings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <NotebookType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Distribution_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Math_Settings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <TaxCatchAll xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" xsi:nil="true"/>
+    <SharedWithUsers xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Groupe xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Langue xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">FD = français voie bili</Langue>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2504,4 +2572,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/306_Journal_travail_ArcardiaBox_GREMAUD_VALENTIN.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_GREMAUD_VALENTIN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/valentin_gremaud_studentfr_ch/Documents/Documents/INFO/3ème année/306/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentingremaud/Documents/EMF/INFO/Modules/306/306-project-groupe-2/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{AD3704F4-E514-C94B-BB1C-897372BB263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15E5DC2A-9D9B-9B43-84AD-956FBBAD9100}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3E230C-22CC-DB4E-8C2B-B1D2BC2A8267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>Gremaud Valentin</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>C'était la semaine de lancement du projet donc je n'ai pas forcément fait énormément de travail mais j'ai surtout réfléchi comment mener à bien le projet de la meilleure manière.</t>
+  </si>
+  <si>
+    <t>Test du jeu (validation des critères)</t>
+  </si>
+  <si>
+    <t>Préparation du sprint suivant</t>
+  </si>
+  <si>
+    <t>Séance scrum et planning</t>
   </si>
 </sst>
 </file>
@@ -586,6 +595,46 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -594,6 +643,58 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -604,98 +705,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1207,7 +1216,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E35" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19:D19"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1224,20 +1233,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -1250,13 +1259,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1266,9 +1275,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1278,13 +1287,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="50">
+      <c r="A6" s="23">
         <v>45992</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="6">
         <v>2</v>
       </c>
@@ -1399,10 +1408,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
@@ -1412,33 +1421,33 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18">
         <v>45999</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="36"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -1456,22 +1465,22 @@
       <c r="A24" s="17">
         <v>45999</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -1499,10 +1508,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="7">
         <v>1</v>
       </c>
@@ -1529,10 +1538,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="10" t="s">
         <v>11</v>
       </c>
@@ -1542,15 +1551,15 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="32">
+      <c r="A34" s="46">
         <v>46006</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -1639,21 +1648,33 @@
       <c r="A42" s="17">
         <v>46007</v>
       </c>
-      <c r="B42" s="19"/>
+      <c r="B42" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="C42" s="20"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="18"/>
-      <c r="B43" s="21"/>
+      <c r="B43" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="C43" s="22"/>
-      <c r="D43" s="7"/>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="18"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="7"/>
+      <c r="B44" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="18"/>
@@ -1663,27 +1684,27 @@
       </c>
       <c r="D45" s="8">
         <f>SUM(D42:D44)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="11">
         <f>SUM(D37,D41,D45)</f>
-        <v>7</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18">
@@ -1779,10 +1800,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="10" t="s">
         <v>11</v>
       </c>
@@ -1792,10 +1813,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="50"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="18">
@@ -1891,10 +1912,10 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="24"/>
+      <c r="B74" s="34"/>
       <c r="C74" s="10" t="s">
         <v>11</v>
       </c>
@@ -1909,54 +1930,24 @@
       </c>
       <c r="D76" s="9">
         <f>D18+D32+D46+D60+D74</f>
-        <v>21</v>
+        <v>24.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
+  <mergeCells count="65">
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B66:C66"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A52:A55"/>
@@ -1967,19 +1958,48 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D17">
     <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Terminé">
@@ -2481,15 +2501,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AppVersion xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
@@ -2555,6 +2566,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
@@ -2575,14 +2595,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2597,4 +2609,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/306_Journal_travail_ArcardiaBox_GREMAUD_VALENTIN.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_GREMAUD_VALENTIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentingremaud/Documents/EMF/INFO/Modules/306/306-project-groupe-2/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3E230C-22CC-DB4E-8C2B-B1D2BC2A8267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFC40D7-1659-4848-9341-FF85395FA921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Gremaud Valentin</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Séance scrum et planning</t>
+  </si>
+  <si>
+    <t>Cette semaine, j'ai géré mon travail de product owner de la bonne manière je pense, mes collègues avaient toujours du boulot grâce à cela. J'ai bien suivi leur travail aussi afin de livrer la MVP. Je pense que je peux continuer comme ça.</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -595,116 +598,112 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1213,10 +1212,10 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E35" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E33" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1233,20 +1232,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -1259,13 +1258,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1275,9 +1274,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1287,13 +1286,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23">
+      <c r="A6" s="49">
         <v>45992</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="6">
         <v>2</v>
       </c>
@@ -1408,10 +1407,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
@@ -1421,33 +1420,33 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18">
         <v>45999</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -1465,22 +1464,22 @@
       <c r="A24" s="17">
         <v>45999</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -1508,10 +1507,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="45"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="7">
         <v>1</v>
       </c>
@@ -1538,10 +1537,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="10" t="s">
         <v>11</v>
       </c>
@@ -1551,15 +1550,15 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="46">
+      <c r="A34" s="31">
         <v>46006</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -1688,10 +1687,10 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="10" t="s">
         <v>11</v>
       </c>
@@ -1701,10 +1700,12 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="47"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="37"/>
+      <c r="A47" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18">
@@ -1800,10 +1801,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="34"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="10" t="s">
         <v>11</v>
       </c>
@@ -1813,10 +1814,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="48"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="50"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="27"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="18">
@@ -1912,10 +1913,10 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="34"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="10" t="s">
         <v>11</v>
       </c>
@@ -1935,19 +1936,48 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A52:A55"/>
@@ -1958,48 +1988,19 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A74:B74"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D17">
     <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Terminé">
@@ -2501,6 +2502,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AppVersion xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
@@ -2566,15 +2576,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
@@ -2595,6 +2596,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2609,12 +2618,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/306_Journal_travail_ArcardiaBox_GREMAUD_VALENTIN.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_GREMAUD_VALENTIN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentingremaud/Documents/EMF/INFO/Modules/306/306-project-groupe-2/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentingremaud/Documents/EMF/INFO/Modules/306/306-project-groupe-2-1/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFC40D7-1659-4848-9341-FF85395FA921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B72C4E4-0144-6C4C-B9DF-6B1705673053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Gremaud Valentin</t>
   </si>
@@ -173,6 +173,21 @@
   </si>
   <si>
     <t>Cette semaine, j'ai géré mon travail de product owner de la bonne manière je pense, mes collègues avaient toujours du boulot grâce à cela. J'ai bien suivi leur travail aussi afin de livrer la MVP. Je pense que je peux continuer comme ça.</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Mise en place de la raspberry sur grand écran</t>
+  </si>
+  <si>
+    <t>Planification du sprint</t>
+  </si>
+  <si>
+    <t>Test de l'arcade et contrôle des objectifs du business case</t>
+  </si>
+  <si>
+    <t>Changer la résolution en 1920x1080 sur la rapsberry</t>
   </si>
 </sst>
 </file>
@@ -598,6 +613,46 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -606,6 +661,54 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -616,94 +719,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1212,10 +1227,10 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E33" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E53" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47:D47"/>
+      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1232,20 +1247,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -1258,13 +1273,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1274,9 +1289,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1286,13 +1301,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="49">
+      <c r="A6" s="23">
         <v>45992</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="47"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="6">
         <v>2</v>
       </c>
@@ -1407,10 +1422,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
@@ -1420,33 +1435,33 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18">
         <v>45999</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -1464,22 +1479,22 @@
       <c r="A24" s="17">
         <v>45999</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -1507,10 +1522,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="7">
         <v>1</v>
       </c>
@@ -1537,10 +1552,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="10" t="s">
         <v>11</v>
       </c>
@@ -1550,15 +1565,15 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="31">
+      <c r="A34" s="46">
         <v>46006</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -1687,10 +1702,10 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="10" t="s">
         <v>11</v>
       </c>
@@ -1700,32 +1715,44 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18">
         <v>45662</v>
       </c>
-      <c r="B48" s="19"/>
+      <c r="B48" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="C48" s="20"/>
-      <c r="D48" s="7"/>
+      <c r="D48" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="18"/>
-      <c r="B49" s="21"/>
+      <c r="B49" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="C49" s="22"/>
-      <c r="D49" s="7"/>
+      <c r="D49" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="18"/>
-      <c r="B50" s="21"/>
+      <c r="B50" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="C50" s="22"/>
-      <c r="D50" s="7"/>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="18"/>
@@ -1735,28 +1762,40 @@
       </c>
       <c r="D51" s="8">
         <f>SUM(D48:D50)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="17">
         <v>45662</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="6"/>
+      <c r="B52" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="18"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="7"/>
+      <c r="B53" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="18"/>
-      <c r="B54" s="21"/>
+      <c r="B54" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="C54" s="22"/>
-      <c r="D54" s="7"/>
+      <c r="D54" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="18"/>
@@ -1766,7 +1805,7 @@
       </c>
       <c r="D55" s="8">
         <f>SUM(D52:D54)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1801,23 +1840,23 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="11">
         <f>SUM(D51,D55,D59)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="49"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="18">
@@ -1913,10 +1952,10 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="24"/>
+      <c r="B74" s="34"/>
       <c r="C74" s="10" t="s">
         <v>11</v>
       </c>
@@ -1931,63 +1970,16 @@
       </c>
       <c r="D76" s="9">
         <f>D18+D32+D46+D60+D74</f>
-        <v>24.5</v>
+        <v>31.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
+  <mergeCells count="63">
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A74:B74"/>
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="A66:A69"/>
@@ -1996,11 +1988,56 @@
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D17">
     <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Terminé">
@@ -2065,6 +2102,81 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AppVersion xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Invited_Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Owner xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Teams_Channel_Section_Location xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <TeamsChannelId xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Invited_Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <FolderType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <CultureName xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Student_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Self_Registration_Enabled xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Templates xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <LMS_Mappings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <NotebookType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Distribution_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Math_Settings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <TaxCatchAll xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" xsi:nil="true"/>
+    <SharedWithUsers xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Groupe xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Langue xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">FD = français voie bili</Langue>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100280ED870E36F6F4C976CEAC6988F82A5" ma:contentTypeVersion="37" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3169f06de23f2334ced166a676265d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xmlns:ns3="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab9665bb0af9cfdaba242b84d69e760" ns2:_="" ns3:_="">
     <xsd:import namespace="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
@@ -2501,82 +2613,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AppVersion xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Invited_Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Owner xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Teams_Channel_Section_Location xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <TeamsChannelId xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Invited_Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <FolderType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <CultureName xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Student_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Self_Registration_Enabled xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Templates xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <LMS_Mappings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <NotebookType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Distribution_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Math_Settings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <TaxCatchAll xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" xsi:nil="true"/>
-    <SharedWithUsers xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Groupe xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Langue xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">FD = français voie bili</Langue>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2593,29 +2655,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/306_Journal_travail_ArcardiaBox_GREMAUD_VALENTIN.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_GREMAUD_VALENTIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentingremaud/Documents/EMF/INFO/Modules/306/306-project-groupe-2-1/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B72C4E4-0144-6C4C-B9DF-6B1705673053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABCE1F9-140D-034D-8D47-71A00D201008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>Gremaud Valentin</t>
   </si>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>Changer la résolution en 1920x1080 sur la rapsberry</t>
+  </si>
+  <si>
+    <t>Doc</t>
+  </si>
+  <si>
+    <t>Discussion de nouvelles fonctionnalités</t>
+  </si>
+  <si>
+    <t>Validation et coordination des nouvelles tâches lié aux nouvelles fonctionnalités</t>
+  </si>
+  <si>
+    <t>Cette semaine, j'ai moins eu de travail vraiment concret, c'était beaucoup consacré à tester l'app. J'ai donc fait pas mal de tests selon le protocole de test afin de valider la qualité et la cohérence par rapport aux cahier des charges. J'ai aussi à toujours plutôt bien coordonner le travail de mes collègues, j'étais un peu moins à travailler mais à beaucoup coordonner cette semaine.</t>
   </si>
 </sst>
 </file>
@@ -299,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -479,15 +491,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -528,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -565,7 +568,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -589,6 +592,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -653,19 +664,15 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -673,6 +680,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -707,18 +718,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1224,13 +1223,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E53" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E43" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1247,20 +1246,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -1273,13 +1272,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1289,9 +1288,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1301,35 +1300,35 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23">
+      <c r="A6" s="25">
         <v>45992</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -1340,35 +1339,35 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
+      <c r="A10" s="19">
         <v>45992</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
         <v>9</v>
@@ -1379,19 +1378,19 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17">
+      <c r="A14" s="19">
         <v>45993</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="13" t="s">
         <v>27</v>
       </c>
@@ -1401,17 +1400,17 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
         <v>9</v>
@@ -1422,10 +1421,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
@@ -1435,37 +1434,37 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18">
+      <c r="A20" s="20">
         <v>45999</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
         <v>9</v>
@@ -1476,29 +1475,29 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17">
+      <c r="A24" s="19">
         <v>45999</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3" t="s">
         <v>9</v>
@@ -1509,39 +1508,39 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17">
+      <c r="A28" s="19">
         <v>46000</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="44" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="45"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3" t="s">
         <v>9</v>
@@ -1552,10 +1551,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="10" t="s">
         <v>11</v>
       </c>
@@ -1565,47 +1564,47 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="46">
+      <c r="A34" s="48">
         <v>46006</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="20"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="22"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3" t="s">
         <v>9</v>
@@ -1616,19 +1615,19 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="17">
+      <c r="A38" s="19">
         <v>46006</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="15" t="s">
         <v>23</v>
       </c>
@@ -1638,7 +1637,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="18"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="16" t="s">
         <v>24</v>
       </c>
@@ -1648,7 +1647,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="18"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
         <v>9</v>
@@ -1659,29 +1658,29 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="17">
+      <c r="A42" s="19">
         <v>46007</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="20"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="21" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="22"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="18"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="13" t="s">
         <v>35</v>
       </c>
@@ -1691,7 +1690,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="18"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
         <v>9</v>
@@ -1702,10 +1701,10 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="10" t="s">
         <v>11</v>
       </c>
@@ -1715,47 +1714,47 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="37"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="39"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="18">
+      <c r="A48" s="20">
         <v>45662</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="20"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="18"/>
-      <c r="B49" s="21" t="s">
+      <c r="A49" s="20"/>
+      <c r="B49" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="22"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="18"/>
-      <c r="B50" s="21" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="22"/>
+      <c r="C50" s="24"/>
       <c r="D50" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="18"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
         <v>9</v>
@@ -1766,7 +1765,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="17">
+      <c r="A52" s="19">
         <v>45662</v>
       </c>
       <c r="B52" s="15" t="s">
@@ -1778,7 +1777,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="18"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="16" t="s">
         <v>41</v>
       </c>
@@ -1788,17 +1787,17 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="18"/>
-      <c r="B54" s="21" t="s">
+      <c r="A54" s="20"/>
+      <c r="B54" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="22"/>
+      <c r="C54" s="24"/>
       <c r="D54" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="18"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
         <v>9</v>
@@ -1809,187 +1808,207 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="17">
-        <v>45663</v>
-      </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="19">
+        <v>46028</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="18"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="7"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="18"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="7"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="18"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="8">
         <f>SUM(D56:D58)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="10" t="s">
-        <v>11</v>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D60" s="11">
         <f>SUM(D51,D55,D59)</f>
-        <v>7</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="47"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="49"/>
+      <c r="A61" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="39"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="18">
-        <v>45669</v>
-      </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
+      <c r="A62" s="20">
+        <v>46034</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="18"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="18"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="18"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A65" s="20"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
       <c r="D65" s="8">
         <f>SUM(D62:D64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="17">
-        <v>45669</v>
-      </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="19">
+        <v>46034</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D66" s="6"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="18"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="21"/>
       <c r="C67" s="22"/>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="18"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="18"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A69" s="20"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
       <c r="D69" s="8">
         <f>SUM(D66:D68)</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="17">
-        <v>45670</v>
-      </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
+      <c r="A70" s="19">
+        <v>46035</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D70" s="6"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="18"/>
+      <c r="A71" s="20"/>
       <c r="B71" s="21"/>
       <c r="C71" s="22"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="18"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
       <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="18"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A73" s="20"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="24"/>
       <c r="D73" s="8">
         <f>SUM(D70:D72)</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="34"/>
-      <c r="C74" s="10" t="s">
-        <v>11</v>
+      <c r="B74" s="2"/>
+      <c r="C74" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D74" s="11">
         <f>SUM(D65,D69,D73)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B75" s="18"/>
+      <c r="C75" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C76" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="D76" s="9">
         <f>D18+D32+D46+D60+D74</f>
-        <v>31.5</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C77" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="61">
     <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A61:D61"/>
     <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:D61"/>
     <mergeCell ref="A52:A55"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="A56:A59"/>

--- a/documentation/306_Journal_travail_ArcardiaBox_GREMAUD_VALENTIN.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_GREMAUD_VALENTIN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentingremaud/Documents/EMF/INFO/Modules/306/306-project-groupe-2-1/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentingremaud/Documents/EMF/INFO/Modules/306/306-project-groupe-2-2/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABCE1F9-140D-034D-8D47-71A00D201008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61C8AB7-C0FC-D446-BB6D-20DCD431EE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>Gremaud Valentin</t>
   </si>
@@ -200,6 +200,24 @@
   </si>
   <si>
     <t>Cette semaine, j'ai moins eu de travail vraiment concret, c'était beaucoup consacré à tester l'app. J'ai donc fait pas mal de tests selon le protocole de test afin de valider la qualité et la cohérence par rapport aux cahier des charges. J'ai aussi à toujours plutôt bien coordonner le travail de mes collègues, j'étais un peu moins à travailler mais à beaucoup coordonner cette semaine.</t>
+  </si>
+  <si>
+    <t>Présentation</t>
+  </si>
+  <si>
+    <t>Finition des différentes choses pour le rendu du projet</t>
+  </si>
+  <si>
+    <t>Préparation de la présentation</t>
+  </si>
+  <si>
+    <t>Validation des derniers travaux fait</t>
+  </si>
+  <si>
+    <t>Coordination du travail dans le projet</t>
+  </si>
+  <si>
+    <t>Cette semaine, c'était surtout finition du projet. Donc j'ai eu peu de planification mais j'ai quand même planifier les derniers tests ainsi que les nouvelles features à éventuellement mettre en place. Sinon j'ai beaucoup documenté et je me suis assuré que notre rendu de projet était complet et propre</t>
   </si>
 </sst>
 </file>
@@ -311,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -527,11 +545,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -624,7 +660,59 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -664,59 +752,67 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -724,29 +820,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1223,13 +1297,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E43" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E67" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
+      <selection pane="bottomRight" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1246,20 +1320,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -1272,13 +1346,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1288,9 +1362,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1300,13 +1374,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25">
+      <c r="A6" s="48">
         <v>45992</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="6">
         <v>2</v>
       </c>
@@ -1421,10 +1495,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="36"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
@@ -1434,33 +1508,33 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20">
         <v>45999</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="20"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -1478,22 +1552,22 @@
       <c r="A24" s="19">
         <v>45999</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="41"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="20"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -1521,10 +1595,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="20"/>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="47"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="7">
         <v>1</v>
       </c>
@@ -1551,10 +1625,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="36"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="10" t="s">
         <v>11</v>
       </c>
@@ -1564,15 +1638,15 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="48">
+      <c r="A34" s="30">
         <v>46006</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -1701,10 +1775,10 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="36"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="10" t="s">
         <v>11</v>
       </c>
@@ -1714,12 +1788,12 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="39"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="20">
@@ -1864,12 +1938,12 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="39"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="27"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="20">
@@ -1883,23 +1957,32 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="20"/>
-      <c r="B63" s="23"/>
+      <c r="B63" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="C63" s="24"/>
-      <c r="D63" s="7"/>
+      <c r="D63" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="20"/>
-      <c r="B64" s="23"/>
+      <c r="B64" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="C64" s="24"/>
-      <c r="D64" s="7"/>
+      <c r="D64" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="20"/>
-      <c r="B65" s="23"/>
+      <c r="B65" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="C65" s="24"/>
-      <c r="D65" s="8">
-        <f>SUM(D62:D64)</f>
-        <v>0</v>
+      <c r="D65" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
@@ -1910,27 +1993,39 @@
       <c r="C66" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="6"/>
+      <c r="D66" s="8">
+        <f>SUM(D62:D65)</f>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
+      <c r="B67" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="C67" s="22"/>
-      <c r="D67" s="7"/>
+      <c r="D67" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="20"/>
-      <c r="B68" s="23"/>
+      <c r="B68" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="C68" s="24"/>
-      <c r="D68" s="7"/>
+      <c r="D68" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="20"/>
-      <c r="B69" s="23"/>
+      <c r="B69" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="C69" s="24"/>
-      <c r="D69" s="8">
-        <f>SUM(D66:D68)</f>
-        <v>0</v>
+      <c r="D69" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -1941,28 +2036,29 @@
       <c r="C70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="6"/>
+      <c r="D70" s="8">
+        <f>SUM(D66:D69)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="20"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
+      <c r="B71" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="50"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="20"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="24"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="52"/>
       <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="20"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="8">
-        <f>SUM(D70:D72)</f>
-        <v>0</v>
-      </c>
+      <c r="B73" s="53"/>
+      <c r="C73" s="54"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="17" t="s">
@@ -1972,9 +2068,9 @@
       <c r="C74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="11">
-        <f>SUM(D65,D69,D73)</f>
-        <v>0</v>
+      <c r="D74" s="8">
+        <f>SUM(D70:D73)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
@@ -1982,11 +2078,15 @@
       <c r="C75" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="D75" s="11">
+        <f>SUM(D66,D70,D74)</f>
+        <v>17.5</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D76" s="9">
-        <f>D18+D32+D46+D60+D74</f>
-        <v>35</v>
+        <f>D18+D32+D46+D60+D75</f>
+        <v>52.5</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
@@ -1994,12 +2094,78 @@
         <v>12</v>
       </c>
     </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="58"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="59"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="60"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="61"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="63"/>
+    </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="60">
+    <mergeCell ref="A78:D80"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="B64:C64"/>
@@ -2009,93 +2175,38 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B71:C73"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D17">
-    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D6:D17 D74 D62:D72">
+    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="32" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D31">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D45">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D59">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D73">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
@@ -2121,81 +2232,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AppVersion xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Invited_Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Owner xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Teams_Channel_Section_Location xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <TeamsChannelId xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Invited_Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <FolderType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <CultureName xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Student_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Self_Registration_Enabled xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Templates xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <LMS_Mappings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <NotebookType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Distribution_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Math_Settings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <TaxCatchAll xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" xsi:nil="true"/>
-    <SharedWithUsers xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Groupe xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Langue xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">FD = français voie bili</Langue>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100280ED870E36F6F4C976CEAC6988F82A5" ma:contentTypeVersion="37" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3169f06de23f2334ced166a676265d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xmlns:ns3="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab9665bb0af9cfdaba242b84d69e760" ns2:_="" ns3:_="">
     <xsd:import namespace="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
@@ -2632,32 +2668,82 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AppVersion xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Invited_Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Owner xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Teams_Channel_Section_Location xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <TeamsChannelId xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Invited_Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <FolderType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <CultureName xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Student_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Self_Registration_Enabled xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Templates xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <LMS_Mappings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <NotebookType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Distribution_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Math_Settings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <TaxCatchAll xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" xsi:nil="true"/>
+    <SharedWithUsers xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Groupe xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Langue xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">FD = français voie bili</Langue>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2674,4 +2760,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>